--- a/data/trans_orig/P33B_R4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R4-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>133018</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>115460</v>
+        <v>114648</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>154284</v>
+        <v>153754</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2299244690123226</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1995749168065414</v>
+        <v>0.1981713042642926</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.266683279772531</v>
+        <v>0.2657677343987316</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>499</v>
@@ -762,19 +762,19 @@
         <v>290761</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>271110</v>
+        <v>269731</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>312034</v>
+        <v>311718</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3545177540576848</v>
+        <v>0.3545177540576849</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3305578266831511</v>
+        <v>0.328876516416721</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3804552997917777</v>
+        <v>0.3800702217288588</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>671</v>
@@ -783,19 +783,19 @@
         <v>423779</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>395496</v>
+        <v>392235</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>453232</v>
+        <v>452048</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3029831517247951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2827621360763272</v>
+        <v>0.28043021358786</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.324040529034897</v>
+        <v>0.3231943980685287</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>445511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>424245</v>
+        <v>424775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>463069</v>
+        <v>463881</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7700755309876774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7333167202274687</v>
+        <v>0.7342322656012685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8004250831934586</v>
+        <v>0.8018286957357067</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>925</v>
@@ -833,19 +833,19 @@
         <v>529399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>508126</v>
+        <v>508442</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>549050</v>
+        <v>550429</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6454822459423153</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6195447002082219</v>
+        <v>0.619929778271141</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6694421733168487</v>
+        <v>0.6711234835832788</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1444</v>
@@ -854,19 +854,19 @@
         <v>974910</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>945457</v>
+        <v>946641</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1003193</v>
+        <v>1006454</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6970168482752049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.675959470965103</v>
+        <v>0.6768056019314712</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7172378639236727</v>
+        <v>0.71956978641214</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>269252</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>236017</v>
+        <v>240573</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>303241</v>
+        <v>304801</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1208217947845878</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1059083926050505</v>
+        <v>0.1079524604229679</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1360737988581332</v>
+        <v>0.1367738628755202</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>581</v>
@@ -979,19 +979,19 @@
         <v>422228</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>390442</v>
+        <v>388441</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>456876</v>
+        <v>459680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1944503917698412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1798117670531167</v>
+        <v>0.1788901717955819</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2104068332872779</v>
+        <v>0.2116984554391204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>856</v>
@@ -1000,19 +1000,19 @@
         <v>691480</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>641936</v>
+        <v>645125</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>740161</v>
+        <v>738774</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1571582165055247</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1458979000074053</v>
+        <v>0.1466226421410242</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1682222560594697</v>
+        <v>0.1679071821054869</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1959254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1925265</v>
+        <v>1923705</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1992489</v>
+        <v>1987933</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8791782052154123</v>
+        <v>0.8791782052154122</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8639262011418666</v>
+        <v>0.8632261371244798</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8940916073949495</v>
+        <v>0.8920475395770321</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2340</v>
@@ -1050,19 +1050,19 @@
         <v>1749164</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1714516</v>
+        <v>1711712</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1780950</v>
+        <v>1782951</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8055496082301589</v>
+        <v>0.8055496082301588</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7895931667127219</v>
+        <v>0.7883015445608803</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8201882329468834</v>
+        <v>0.8211098282044181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4055</v>
@@ -1071,19 +1071,19 @@
         <v>3708418</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3659737</v>
+        <v>3661124</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3757962</v>
+        <v>3754773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8428417834944752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8317777439405305</v>
+        <v>0.8320928178945132</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8541020999925947</v>
+        <v>0.8533773578589759</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>84722</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64412</v>
+        <v>67484</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105769</v>
+        <v>108090</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1192255910717852</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0906442701858209</v>
+        <v>0.09496763095334296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1488450467236204</v>
+        <v>0.1521109463575148</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -1196,19 +1196,19 @@
         <v>125816</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108160</v>
+        <v>106209</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>144674</v>
+        <v>144401</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.17120712419837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1471805110652673</v>
+        <v>0.144525856356914</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.196868475061637</v>
+        <v>0.1964965455591808</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>236</v>
@@ -1217,19 +1217,19 @@
         <v>210538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>186393</v>
+        <v>183926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>240811</v>
+        <v>240009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1456528952173489</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1289492926553206</v>
+        <v>0.1272422193570489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1665958944278759</v>
+        <v>0.166041362019284</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>625877</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>604830</v>
+        <v>602509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>646187</v>
+        <v>643115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8807744089282149</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8511549532763796</v>
+        <v>0.8478890536424851</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9093557298141788</v>
+        <v>0.9050323690466571</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>839</v>
@@ -1267,19 +1267,19 @@
         <v>609061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>590203</v>
+        <v>590476</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>626717</v>
+        <v>628668</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8287928758016301</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.803131524938363</v>
+        <v>0.8035034544408195</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8528194889347327</v>
+        <v>0.8554741436430863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1448</v>
@@ -1288,19 +1288,19 @@
         <v>1234939</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1204666</v>
+        <v>1205468</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1259084</v>
+        <v>1261551</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8543471047826511</v>
+        <v>0.8543471047826512</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8334041055721243</v>
+        <v>0.8339586379807161</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8710507073446796</v>
+        <v>0.8727577806429511</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>486992</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>448258</v>
+        <v>442556</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>535299</v>
+        <v>528554</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1384429664909707</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1274316174258619</v>
+        <v>0.125810612727611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1521758270357469</v>
+        <v>0.1502583190110362</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1245</v>
@@ -1413,19 +1413,19 @@
         <v>838805</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>793295</v>
+        <v>797249</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>882991</v>
+        <v>886390</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2250963076264003</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2128835021305548</v>
+        <v>0.2139443841458202</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2369535757287704</v>
+        <v>0.2378656954758714</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1763</v>
@@ -1434,19 +1434,19 @@
         <v>1325797</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1269279</v>
+        <v>1263268</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1391888</v>
+        <v>1390113</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1830184333958221</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1752164643624556</v>
+        <v>0.1743866076189563</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1921418701427952</v>
+        <v>0.1918969021718633</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3030643</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2982336</v>
+        <v>2989081</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3069377</v>
+        <v>3075079</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8615570335090293</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8478241729642531</v>
+        <v>0.8497416809889639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8725683825741382</v>
+        <v>0.8741893872723889</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4104</v>
@@ -1484,19 +1484,19 @@
         <v>2887624</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2843438</v>
+        <v>2840039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2933134</v>
+        <v>2929180</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7749036923735997</v>
+        <v>0.7749036923735998</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7630464242712297</v>
+        <v>0.7621343045241286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7871164978694452</v>
+        <v>0.7860556158541797</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6947</v>
@@ -1505,19 +1505,19 @@
         <v>5918267</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5852176</v>
+        <v>5853951</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5974785</v>
+        <v>5980796</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.816981566604178</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8078581298572046</v>
+        <v>0.8081030978281366</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8247835356375444</v>
+        <v>0.8256133923810436</v>
       </c>
     </row>
     <row r="15">
